--- a/答卷数据.xlsx
+++ b/答卷数据.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B429F5B0-1D34-4F80-AFE5-C224C01A85C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
   <si>
     <t>序号</t>
   </si>
@@ -32,9 +37,6 @@
     <t>来源详情</t>
   </si>
   <si>
-    <t>来自IP</t>
-  </si>
-  <si>
     <t>请选择您的年级</t>
   </si>
   <si>
@@ -110,9 +112,6 @@
     <t>直接访问</t>
   </si>
   <si>
-    <t>58.22.114.113(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:14:42</t>
   </si>
   <si>
@@ -122,18 +121,12 @@
     <t>手机提交</t>
   </si>
   <si>
-    <t>220.249.162.89(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:16:45</t>
   </si>
   <si>
     <t>89秒</t>
   </si>
   <si>
-    <t>220.160.64.95(福建-福州)</t>
-  </si>
-  <si>
     <t>不能上传图片</t>
   </si>
   <si>
@@ -143,9 +136,6 @@
     <t>198秒</t>
   </si>
   <si>
-    <t>58.22.113.43(福建-福州)</t>
-  </si>
-  <si>
     <t>(空)</t>
   </si>
   <si>
@@ -161,9 +151,6 @@
     <t>49秒</t>
   </si>
   <si>
-    <t>117.29.43.16(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:19:00</t>
   </si>
   <si>
@@ -197,9 +184,6 @@
     <t>78秒</t>
   </si>
   <si>
-    <t>121.207.214.32(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:21:51</t>
   </si>
   <si>
@@ -248,18 +232,12 @@
     <t>77秒</t>
   </si>
   <si>
-    <t>202.201.12.139(甘肃-兰州)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:45:30</t>
   </si>
   <si>
     <t>66秒</t>
   </si>
   <si>
-    <t>117.136.75.136(福建-福州)</t>
-  </si>
-  <si>
     <t>需要注册</t>
   </si>
   <si>
@@ -269,18 +247,12 @@
     <t>95秒</t>
   </si>
   <si>
-    <t>140.243.38.28(福建-厦门)</t>
-  </si>
-  <si>
     <t>2021/6/16 19:57:13</t>
   </si>
   <si>
     <t>184秒</t>
   </si>
   <si>
-    <t>220.249.162.97(福建-福州)</t>
-  </si>
-  <si>
     <t>对于网络状态检测，刷新就会在顶端弹出，影响整体观感</t>
   </si>
   <si>
@@ -290,9 +262,6 @@
     <t>676秒</t>
   </si>
   <si>
-    <t>121.204.50.254(福建-福州)</t>
-  </si>
-  <si>
     <t>登陆后的不断发送post 请求会造成我的浏览器卡顿以及流量的徒增消耗</t>
   </si>
   <si>
@@ -311,9 +280,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>120.36.92.114(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/17 11:31:05</t>
   </si>
   <si>
@@ -326,32 +292,205 @@
     <t>39秒</t>
   </si>
   <si>
-    <t>218.106.145.7(福建-福州)</t>
-  </si>
-  <si>
     <t>2021/6/17 15:58:32</t>
   </si>
   <si>
     <t>69秒</t>
   </si>
   <si>
-    <t>220.249.162.86(福建-福州)</t>
+    <t>2021/6/18 10:33:30</t>
+  </si>
+  <si>
+    <t>和其他用户聊天的功能</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:42:38</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:42:41</t>
+  </si>
+  <si>
+    <t>28秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:43:05</t>
+  </si>
+  <si>
+    <t>18秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:43:37</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:43:44</t>
+  </si>
+  <si>
+    <t>50秒</t>
+  </si>
+  <si>
+    <t>分享至微信</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:43:47</t>
+  </si>
+  <si>
+    <t>92秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:44:18</t>
+  </si>
+  <si>
+    <t>26秒</t>
+  </si>
+  <si>
+    <t>36秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:44:41</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:44:51</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:45:22</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:45:42</t>
+  </si>
+  <si>
+    <t>13秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:45:51</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:46:00</t>
+  </si>
+  <si>
+    <t>14秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:46:20</t>
+  </si>
+  <si>
+    <t>16秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:46:21</t>
+  </si>
+  <si>
+    <t>20秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:47:10</t>
+  </si>
+  <si>
+    <t>41秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:47:44</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:48:21</t>
+  </si>
+  <si>
+    <t>31秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:48:51</t>
+  </si>
+  <si>
+    <t>25秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:49:17</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:50:22</t>
+  </si>
+  <si>
+    <t>85秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:50:58</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:51:12</t>
+  </si>
+  <si>
+    <t>37秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:51:35</t>
+  </si>
+  <si>
+    <t>17秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:51:37</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:52:07</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:52:20</t>
+  </si>
+  <si>
+    <t>54秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:52:22</t>
+  </si>
+  <si>
+    <t>42秒</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:53:40</t>
+  </si>
+  <si>
+    <t>2021/6/18 10:54:50</t>
+  </si>
+  <si>
+    <t>需要注册，太麻烦了</t>
+  </si>
+  <si>
+    <t>2021/6/18 11:08:05</t>
+  </si>
+  <si>
+    <t>46秒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -366,110 +505,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -792,36 +858,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F34" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="13" width="9.14285714285714" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="22.4285714285714" customWidth="1"/>
-    <col min="16" max="16" width="34.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="22.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="20.1428571428571" customWidth="1"/>
-    <col min="19" max="20" width="24.1428571428571" customWidth="1"/>
-    <col min="21" max="21" width="49.8571428571429" customWidth="1"/>
-    <col min="22" max="22" width="29.8571428571429" customWidth="1"/>
-    <col min="23" max="23" width="46.8571428571429" customWidth="1"/>
-    <col min="24" max="24" width="22.7142857142857" customWidth="1"/>
-    <col min="25" max="25" width="103.428571428571" customWidth="1"/>
-    <col min="26" max="26" width="28.4285714285714" customWidth="1"/>
-    <col min="27" max="27" width="4.28571428571429" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" customWidth="1"/>
+    <col min="15" max="15" width="34.1796875" customWidth="1"/>
+    <col min="16" max="16" width="22.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" customWidth="1"/>
+    <col min="18" max="19" width="24.1796875" customWidth="1"/>
+    <col min="20" max="20" width="49.81640625" customWidth="1"/>
+    <col min="21" max="21" width="29.81640625" customWidth="1"/>
+    <col min="22" max="22" width="46.81640625" customWidth="1"/>
+    <col min="23" max="23" width="22.7265625" customWidth="1"/>
+    <col min="24" max="24" width="103.453125" customWidth="1"/>
+    <col min="25" max="25" width="28.453125" customWidth="1"/>
+    <col min="26" max="26" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,34 +968,31 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="12.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -939,84 +1004,81 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q2">
-        <v>-3</v>
+        <v>90</v>
       </c>
       <c r="R2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="S2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U2">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="Z2">
-        <v>8</v>
-      </c>
-      <c r="AA2">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1034,66 +1096,63 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="R3">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T3">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="U3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W3">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y3">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1117,93 +1176,90 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>90</v>
       </c>
       <c r="R4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S4">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="T4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4">
-        <v>79</v>
-      </c>
-      <c r="V4">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
-        <v>39</v>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y4">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z4">
-        <v>9</v>
-      </c>
-      <c r="AA4">
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q5">
-        <v>-3</v>
+        <v>100</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -1211,49 +1267,46 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5">
-        <v>100</v>
-      </c>
-      <c r="U5" t="s">
-        <v>43</v>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W5">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y5">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="Z5">
-        <v>11</v>
-      </c>
-      <c r="AA5">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1283,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q6">
-        <v>-3</v>
+        <v>88</v>
       </c>
       <c r="R6">
         <v>88</v>
@@ -1295,54 +1348,51 @@
         <v>88</v>
       </c>
       <c r="T6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U6">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y6">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z6">
-        <v>10</v>
-      </c>
-      <c r="AA6">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1366,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q7">
-        <v>-3</v>
+        <v>90</v>
       </c>
       <c r="R7">
         <v>90</v>
@@ -1378,54 +1428,51 @@
         <v>90</v>
       </c>
       <c r="T7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W7">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y7">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="Z7">
-        <v>11</v>
-      </c>
-      <c r="AA7">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12.75">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1449,72 +1496,69 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>85</v>
       </c>
       <c r="R8">
         <v>85</v>
       </c>
       <c r="S8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U8">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W8">
-        <v>-3</v>
-      </c>
-      <c r="X8">
         <v>2</v>
       </c>
-      <c r="Y8" t="s">
-        <v>51</v>
+      <c r="X8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
       </c>
       <c r="Z8">
-        <v>9</v>
-      </c>
-      <c r="AA8">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12.75">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1523,81 +1567,78 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q9">
-        <v>-3</v>
+        <v>96</v>
       </c>
       <c r="R9">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="T9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U9">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W9">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y9">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>8</v>
-      </c>
-      <c r="AA9">
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12.75">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1615,149 +1656,143 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q10">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="R10">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U10">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y10">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12.75">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q11">
-        <v>-3</v>
+        <v>93</v>
       </c>
       <c r="R11">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U11">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y11">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="Z11">
-        <v>8</v>
-      </c>
-      <c r="AA11">
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12.75">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1781,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q12">
-        <v>-3</v>
+        <v>81</v>
       </c>
       <c r="R12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S12">
         <v>79</v>
@@ -1796,57 +1831,54 @@
         <v>79</v>
       </c>
       <c r="U12">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W12">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y12">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z12">
-        <v>9</v>
-      </c>
-      <c r="AA12">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12.75">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1858,78 +1890,75 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q13">
-        <v>-3</v>
+        <v>87</v>
       </c>
       <c r="R13">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S13">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="T13">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U13">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W13">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y13">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="Z13">
-        <v>8</v>
-      </c>
-      <c r="AA13">
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="12.75">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1938,247 +1967,238 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q14">
-        <v>-3</v>
+        <v>93</v>
       </c>
       <c r="R14">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S14">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="T14">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U14">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y14">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z14">
-        <v>9</v>
-      </c>
-      <c r="AA14">
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="12.75">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q15">
-        <v>-3</v>
+        <v>88</v>
       </c>
       <c r="R15">
+        <v>82</v>
+      </c>
+      <c r="S15">
         <v>88</v>
       </c>
-      <c r="S15">
-        <v>82</v>
-      </c>
       <c r="T15">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U15">
-        <v>85</v>
-      </c>
-      <c r="V15">
         <v>2</v>
       </c>
-      <c r="W15" t="s">
-        <v>67</v>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y15">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>10</v>
-      </c>
-      <c r="AA15">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
       </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q16">
-        <v>-3</v>
+        <v>80</v>
       </c>
       <c r="R16">
         <v>80</v>
       </c>
       <c r="S16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T16">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U16">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W16">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y16">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z16">
-        <v>9</v>
-      </c>
-      <c r="AA16">
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="12.75">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2187,69 +2207,66 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q17">
-        <v>-3</v>
+        <v>85</v>
       </c>
       <c r="R17">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S17">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T17">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U17">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W17">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y17">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z17">
-        <v>9</v>
-      </c>
-      <c r="AA17">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="12.75">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2261,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2273,75 +2290,72 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q18">
-        <v>-3</v>
+        <v>59</v>
       </c>
       <c r="R18">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="S18">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="T18">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U18">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W18">
-        <v>-3</v>
-      </c>
-      <c r="X18">
         <v>2</v>
       </c>
-      <c r="Y18" t="s">
-        <v>73</v>
+      <c r="X18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
       </c>
       <c r="Z18">
-        <v>8</v>
-      </c>
-      <c r="AA18">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="12.75">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2356,66 +2370,63 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q19">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="R19">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S19">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T19">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U19">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W19">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y19">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z19">
-        <v>10</v>
-      </c>
-      <c r="AA19">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="12.75">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2445,66 +2456,63 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q20">
-        <v>-3</v>
+        <v>95</v>
       </c>
       <c r="R20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S20">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T20">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U20">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W20">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y20">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Z20">
-        <v>10</v>
-      </c>
-      <c r="AA20">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="12.75">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2516,87 +2524,84 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" t="s">
-        <v>81</v>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21">
+        <v>68</v>
       </c>
       <c r="R21">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="S21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T21">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="U21">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W21">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y21">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AA21">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="12.75">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2605,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q22">
-        <v>-3</v>
+        <v>100</v>
       </c>
       <c r="R22">
         <v>100</v>
@@ -2626,57 +2631,54 @@
         <v>100</v>
       </c>
       <c r="U22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W22">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y22">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="Z22">
-        <v>7</v>
-      </c>
-      <c r="AA22">
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="12.75">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2694,75 +2696,72 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q23">
-        <v>-3</v>
+        <v>95</v>
       </c>
       <c r="R23">
         <v>95</v>
       </c>
       <c r="S23">
+        <v>85</v>
+      </c>
+      <c r="T23">
         <v>95</v>
       </c>
-      <c r="T23">
-        <v>85</v>
-      </c>
       <c r="U23">
-        <v>95</v>
-      </c>
-      <c r="V23">
         <v>2</v>
       </c>
-      <c r="W23" t="s">
-        <v>88</v>
+      <c r="V23" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y23">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="Z23">
-        <v>7</v>
-      </c>
-      <c r="AA23">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="12.75">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2771,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q24">
-        <v>-3</v>
+        <v>100</v>
       </c>
       <c r="R24">
         <v>100</v>
@@ -2792,51 +2791,48 @@
         <v>100</v>
       </c>
       <c r="U24">
-        <v>100</v>
-      </c>
-      <c r="V24">
         <v>2</v>
       </c>
-      <c r="W24" t="s">
-        <v>92</v>
-      </c>
-      <c r="X24">
+      <c r="V24" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24">
         <v>2</v>
       </c>
-      <c r="Y24" t="s">
-        <v>93</v>
+      <c r="X24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
       </c>
       <c r="Z24">
-        <v>7</v>
-      </c>
-      <c r="AA24">
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="12.75">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2851,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2860,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q25">
-        <v>-3</v>
+        <v>100</v>
       </c>
       <c r="R25">
         <v>100</v>
@@ -2875,128 +2871,122 @@
         <v>100</v>
       </c>
       <c r="U25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W25">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y25">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z25">
-        <v>9</v>
-      </c>
-      <c r="AA25">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="12.75">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>-3</v>
+      </c>
+      <c r="Q26">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>-3</v>
-      </c>
       <c r="R26">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="S26">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T26">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="U26">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W26">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y26">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z26">
-        <v>9</v>
-      </c>
-      <c r="AA26">
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="12.75">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3014,93 +3004,90 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q27">
-        <v>-3</v>
+        <v>92</v>
       </c>
       <c r="R27">
+        <v>87</v>
+      </c>
+      <c r="S27">
+        <v>94</v>
+      </c>
+      <c r="T27">
         <v>92</v>
       </c>
-      <c r="S27">
-        <v>87</v>
-      </c>
-      <c r="T27">
-        <v>94</v>
-      </c>
       <c r="U27">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W27">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y27">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="Z27">
-        <v>9</v>
-      </c>
-      <c r="AA27">
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="12.75">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3109,44 +3096,2682 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q28">
-        <v>-3</v>
+        <v>100</v>
       </c>
       <c r="R28">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S28">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="T28">
         <v>80</v>
       </c>
       <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>-3</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>-3</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>-3</v>
+      </c>
+      <c r="Q29">
+        <v>91</v>
+      </c>
+      <c r="R29">
+        <v>89</v>
+      </c>
+      <c r="S29">
+        <v>89</v>
+      </c>
+      <c r="T29">
+        <v>91</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>-3</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>-3</v>
+      </c>
+      <c r="Q30">
+        <v>91</v>
+      </c>
+      <c r="R30">
+        <v>84</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+      <c r="T30">
+        <v>90</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>-3</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>-3</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>-3</v>
+      </c>
+      <c r="Q31">
+        <v>81</v>
+      </c>
+      <c r="R31">
+        <v>78</v>
+      </c>
+      <c r="S31">
+        <v>71</v>
+      </c>
+      <c r="T31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>-3</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>-3</v>
+      </c>
+      <c r="Y31">
+        <v>9</v>
+      </c>
+      <c r="Z31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>-3</v>
+      </c>
+      <c r="Q32">
+        <v>91</v>
+      </c>
+      <c r="R32">
+        <v>86</v>
+      </c>
+      <c r="S32">
+        <v>100</v>
+      </c>
+      <c r="T32">
+        <v>89</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>-3</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>-3</v>
+      </c>
+      <c r="Y32">
+        <v>9</v>
+      </c>
+      <c r="Z32">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>-3</v>
+      </c>
+      <c r="Q33">
+        <v>95</v>
+      </c>
+      <c r="R33">
+        <v>91</v>
+      </c>
+      <c r="S33">
+        <v>91</v>
+      </c>
+      <c r="T33">
+        <v>86</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>-3</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>-3</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>-3</v>
+      </c>
+      <c r="Q34">
+        <v>74</v>
+      </c>
+      <c r="R34">
+        <v>74</v>
+      </c>
+      <c r="S34">
+        <v>76</v>
+      </c>
+      <c r="T34">
+        <v>78</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>-3</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y34">
+        <v>8</v>
+      </c>
+      <c r="Z34">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>-3</v>
+      </c>
+      <c r="Q35">
+        <v>83</v>
+      </c>
+      <c r="R35">
+        <v>69</v>
+      </c>
+      <c r="S35">
+        <v>53</v>
+      </c>
+      <c r="T35">
+        <v>68</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>-3</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>-3</v>
+      </c>
+      <c r="Q36">
         <v>80</v>
       </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>-3</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>-3</v>
-      </c>
-      <c r="Z28">
+      <c r="R36">
+        <v>83</v>
+      </c>
+      <c r="S36">
+        <v>79</v>
+      </c>
+      <c r="T36">
+        <v>85</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>-3</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>-3</v>
+      </c>
+      <c r="Y36">
+        <v>9</v>
+      </c>
+      <c r="Z36">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>-3</v>
+      </c>
+      <c r="Q37">
+        <v>95</v>
+      </c>
+      <c r="R37">
+        <v>88</v>
+      </c>
+      <c r="S37">
+        <v>90</v>
+      </c>
+      <c r="T37">
+        <v>99</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>-3</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>-3</v>
+      </c>
+      <c r="Y37">
         <v>8</v>
       </c>
-      <c r="AA28">
+      <c r="Z37">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>-3</v>
+      </c>
+      <c r="Q38">
+        <v>74</v>
+      </c>
+      <c r="R38">
+        <v>74</v>
+      </c>
+      <c r="S38">
+        <v>78</v>
+      </c>
+      <c r="T38">
+        <v>69</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>-3</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>-3</v>
+      </c>
+      <c r="Y38">
+        <v>9</v>
+      </c>
+      <c r="Z38">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>-3</v>
+      </c>
+      <c r="Q39">
+        <v>81</v>
+      </c>
+      <c r="R39">
+        <v>72</v>
+      </c>
+      <c r="S39">
+        <v>78</v>
+      </c>
+      <c r="T39">
+        <v>79</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>-3</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>-3</v>
+      </c>
+      <c r="Y39">
+        <v>9</v>
+      </c>
+      <c r="Z39">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>-3</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+      <c r="R40">
+        <v>84</v>
+      </c>
+      <c r="S40">
+        <v>100</v>
+      </c>
+      <c r="T40">
+        <v>78</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>-3</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>-3</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>-3</v>
+      </c>
+      <c r="Q41">
+        <v>100</v>
+      </c>
+      <c r="R41">
+        <v>100</v>
+      </c>
+      <c r="S41">
+        <v>100</v>
+      </c>
+      <c r="T41">
+        <v>100</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>-3</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>-3</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>-3</v>
+      </c>
+      <c r="Q42">
+        <v>80</v>
+      </c>
+      <c r="R42">
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>60</v>
+      </c>
+      <c r="T42">
+        <v>60</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>-3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>-3</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>-3</v>
+      </c>
+      <c r="Q43">
+        <v>85</v>
+      </c>
+      <c r="R43">
+        <v>79</v>
+      </c>
+      <c r="S43">
+        <v>82</v>
+      </c>
+      <c r="T43">
+        <v>81</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>-3</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>-3</v>
+      </c>
+      <c r="Y43">
+        <v>11</v>
+      </c>
+      <c r="Z43">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>-3</v>
+      </c>
+      <c r="Q44">
+        <v>86</v>
+      </c>
+      <c r="R44">
+        <v>100</v>
+      </c>
+      <c r="S44">
+        <v>92</v>
+      </c>
+      <c r="T44">
+        <v>86</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>-3</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>-3</v>
+      </c>
+      <c r="Y44">
+        <v>11</v>
+      </c>
+      <c r="Z44">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>-3</v>
+      </c>
+      <c r="Q45">
+        <v>76</v>
+      </c>
+      <c r="R45">
+        <v>72</v>
+      </c>
+      <c r="S45">
+        <v>60</v>
+      </c>
+      <c r="T45">
+        <v>58</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>-3</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>-3</v>
+      </c>
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>-3</v>
+      </c>
+      <c r="Q46">
+        <v>78</v>
+      </c>
+      <c r="R46">
+        <v>68</v>
+      </c>
+      <c r="S46">
+        <v>63</v>
+      </c>
+      <c r="T46">
+        <v>69</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>-3</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>-3</v>
+      </c>
+      <c r="Y46">
+        <v>9</v>
+      </c>
+      <c r="Z46">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>-3</v>
+      </c>
+      <c r="Q47">
+        <v>68</v>
+      </c>
+      <c r="R47">
+        <v>70</v>
+      </c>
+      <c r="S47">
+        <v>66</v>
+      </c>
+      <c r="T47">
+        <v>75</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>-3</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>-3</v>
+      </c>
+      <c r="Y47">
+        <v>6</v>
+      </c>
+      <c r="Z47">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>-3</v>
+      </c>
+      <c r="Q48">
+        <v>57</v>
+      </c>
+      <c r="R48">
+        <v>52</v>
+      </c>
+      <c r="S48">
+        <v>37</v>
+      </c>
+      <c r="T48">
+        <v>41</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>-3</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>-3</v>
+      </c>
+      <c r="Y48">
+        <v>4</v>
+      </c>
+      <c r="Z48">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>-3</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>34</v>
+      </c>
+      <c r="S49">
+        <v>30</v>
+      </c>
+      <c r="T49">
+        <v>23</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>-3</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>-3</v>
+      </c>
+      <c r="Y49">
+        <v>5</v>
+      </c>
+      <c r="Z49">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>-3</v>
+      </c>
+      <c r="Q50">
+        <v>94</v>
+      </c>
+      <c r="R50">
+        <v>84</v>
+      </c>
+      <c r="S50">
+        <v>86</v>
+      </c>
+      <c r="T50">
+        <v>85</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>-3</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>-3</v>
+      </c>
+      <c r="Y50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>-3</v>
+      </c>
+      <c r="Q51">
+        <v>100</v>
+      </c>
+      <c r="R51">
+        <v>100</v>
+      </c>
+      <c r="S51">
+        <v>100</v>
+      </c>
+      <c r="T51">
+        <v>100</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>-3</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>-3</v>
+      </c>
+      <c r="Y51">
+        <v>11</v>
+      </c>
+      <c r="Z51">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>-3</v>
+      </c>
+      <c r="Q52">
+        <v>91</v>
+      </c>
+      <c r="R52">
+        <v>79</v>
+      </c>
+      <c r="S52">
+        <v>88</v>
+      </c>
+      <c r="T52">
+        <v>89</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>-3</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>-3</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>-3</v>
+      </c>
+      <c r="Q53">
+        <v>93</v>
+      </c>
+      <c r="R53">
+        <v>86</v>
+      </c>
+      <c r="S53">
+        <v>82</v>
+      </c>
+      <c r="T53">
+        <v>79</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>-3</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>-3</v>
+      </c>
+      <c r="Y53">
+        <v>9</v>
+      </c>
+      <c r="Z53">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>-3</v>
+      </c>
+      <c r="Q54">
+        <v>79</v>
+      </c>
+      <c r="R54">
+        <v>81</v>
+      </c>
+      <c r="S54">
+        <v>69</v>
+      </c>
+      <c r="T54">
+        <v>76</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>-3</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>-3</v>
+      </c>
+      <c r="Y54">
+        <v>9</v>
+      </c>
+      <c r="Z54">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>-3</v>
+      </c>
+      <c r="Q55">
+        <v>84</v>
+      </c>
+      <c r="R55">
+        <v>78</v>
+      </c>
+      <c r="S55">
+        <v>90</v>
+      </c>
+      <c r="T55">
+        <v>89</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>-3</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>-3</v>
+      </c>
+      <c r="Y55">
+        <v>9</v>
+      </c>
+      <c r="Z55">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>-3</v>
+      </c>
+      <c r="Q56">
+        <v>93</v>
+      </c>
+      <c r="R56">
+        <v>87</v>
+      </c>
+      <c r="S56">
+        <v>79</v>
+      </c>
+      <c r="T56">
+        <v>89</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>-3</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>-3</v>
+      </c>
+      <c r="Y56">
+        <v>6</v>
+      </c>
+      <c r="Z56">
         <v>353</v>
       </c>
     </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>-3</v>
+      </c>
+      <c r="Q57">
+        <v>88</v>
+      </c>
+      <c r="R57">
+        <v>93</v>
+      </c>
+      <c r="S57">
+        <v>78</v>
+      </c>
+      <c r="T57">
+        <v>95</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>-3</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>-3</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>-3</v>
+      </c>
+      <c r="Q58">
+        <v>89</v>
+      </c>
+      <c r="R58">
+        <v>79</v>
+      </c>
+      <c r="S58">
+        <v>88</v>
+      </c>
+      <c r="T58">
+        <v>86</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>-3</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>-3</v>
+      </c>
+      <c r="Y58">
+        <v>9</v>
+      </c>
+      <c r="Z58">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>-3</v>
+      </c>
+      <c r="Q59">
+        <v>91</v>
+      </c>
+      <c r="R59">
+        <v>89</v>
+      </c>
+      <c r="S59">
+        <v>81</v>
+      </c>
+      <c r="T59">
+        <v>89</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>-3</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>-3</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q60">
+        <v>90</v>
+      </c>
+      <c r="R60">
+        <v>83</v>
+      </c>
+      <c r="S60">
+        <v>89</v>
+      </c>
+      <c r="T60">
+        <v>98</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>-3</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>-3</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>-3</v>
+      </c>
+      <c r="Q61">
+        <v>93</v>
+      </c>
+      <c r="R61">
+        <v>81</v>
+      </c>
+      <c r="S61">
+        <v>90</v>
+      </c>
+      <c r="T61">
+        <v>92</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>-3</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>-3</v>
+      </c>
+      <c r="Y61">
+        <v>10</v>
+      </c>
+      <c r="Z61">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>